--- a/Code/Results/Cases/Case_4_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.4394210968246</v>
+        <v>10.18193212210974</v>
       </c>
       <c r="C2">
-        <v>9.474624073640415</v>
+        <v>6.146048241211081</v>
       </c>
       <c r="D2">
-        <v>7.109413785669369</v>
+        <v>6.000841204185</v>
       </c>
       <c r="E2">
-        <v>13.618768580063</v>
+        <v>11.6511982098234</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.47759927712399</v>
+        <v>39.59665430468949</v>
       </c>
       <c r="H2">
-        <v>11.63234103212653</v>
+        <v>16.76183556689347</v>
       </c>
       <c r="I2">
-        <v>17.64413408519439</v>
+        <v>24.27923766111509</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.58846008110951</v>
+        <v>10.62873368677392</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.14661929688683</v>
+        <v>14.5893551430761</v>
       </c>
       <c r="N2">
-        <v>13.2435914437578</v>
+        <v>20.05865695884594</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.52279284940037</v>
+        <v>9.921873704013338</v>
       </c>
       <c r="C3">
-        <v>8.811062218192756</v>
+        <v>5.910367986378228</v>
       </c>
       <c r="D3">
-        <v>6.612771993572081</v>
+        <v>5.885185272856104</v>
       </c>
       <c r="E3">
-        <v>12.78163115633099</v>
+        <v>11.43826046631249</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>35.18644298958067</v>
+        <v>39.40383858322354</v>
       </c>
       <c r="H3">
-        <v>11.51396441669068</v>
+        <v>16.78164993780516</v>
       </c>
       <c r="I3">
-        <v>17.46419910924877</v>
+        <v>24.30586070439011</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.76350168383373</v>
+        <v>10.45118847703047</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.12214624016955</v>
+        <v>14.42721212908878</v>
       </c>
       <c r="N3">
-        <v>13.43592740843494</v>
+        <v>20.11560652831324</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.92864862158827</v>
+        <v>9.761508525285656</v>
       </c>
       <c r="C4">
-        <v>8.38194940197255</v>
+        <v>5.76261178955103</v>
       </c>
       <c r="D4">
-        <v>6.291857967854673</v>
+        <v>5.814838911208075</v>
       </c>
       <c r="E4">
-        <v>12.25202677730265</v>
+        <v>11.30940041897275</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.40719159152258</v>
+        <v>39.29660929103007</v>
       </c>
       <c r="H4">
-        <v>11.44930063460222</v>
+        <v>16.79686780302429</v>
       </c>
       <c r="I4">
-        <v>17.36713182849467</v>
+        <v>24.32704653258796</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.22993391799976</v>
+        <v>10.3434968062104</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.46045565883793</v>
+        <v>14.33077356911291</v>
       </c>
       <c r="N4">
-        <v>13.55789101821678</v>
+        <v>20.15244166950302</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.67858424732042</v>
+        <v>9.69609444889513</v>
       </c>
       <c r="C5">
-        <v>8.201566204036091</v>
+        <v>5.701739062774982</v>
       </c>
       <c r="D5">
-        <v>6.177303564987048</v>
+        <v>5.786383371747627</v>
       </c>
       <c r="E5">
-        <v>12.03244146128094</v>
+        <v>11.25743868586938</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.09335533243297</v>
+        <v>39.25574944131914</v>
       </c>
       <c r="H5">
-        <v>11.4249096038651</v>
+        <v>16.80383548319731</v>
       </c>
       <c r="I5">
-        <v>17.330843583057</v>
+        <v>24.33689433767714</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.00566174971217</v>
+        <v>10.30000511113286</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.1825202470498</v>
+        <v>14.29230220528945</v>
       </c>
       <c r="N5">
-        <v>13.60855957991495</v>
+        <v>20.16792264089737</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.63657943234713</v>
+        <v>9.685231899764633</v>
       </c>
       <c r="C6">
-        <v>8.171278723846861</v>
+        <v>5.691594561628987</v>
       </c>
       <c r="D6">
-        <v>6.158136498869304</v>
+        <v>5.781672380394311</v>
       </c>
       <c r="E6">
-        <v>11.99575747527945</v>
+        <v>11.24884589243061</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.04147695779252</v>
+        <v>39.2491368439165</v>
       </c>
       <c r="H6">
-        <v>11.42097616487757</v>
+        <v>16.80503870615923</v>
       </c>
       <c r="I6">
-        <v>17.32501212195171</v>
+        <v>24.33860282696687</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.96800748248374</v>
+        <v>10.29280889933127</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.13586639147052</v>
+        <v>14.28596533514219</v>
       </c>
       <c r="N6">
-        <v>13.61703136512094</v>
+        <v>20.17052167218656</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.92530842524529</v>
+        <v>9.760626439858083</v>
       </c>
       <c r="C7">
-        <v>8.379539108942827</v>
+        <v>5.761793367594276</v>
       </c>
       <c r="D7">
-        <v>6.290322859480643</v>
+        <v>5.814454237179064</v>
       </c>
       <c r="E7">
-        <v>12.24908038457471</v>
+        <v>11.30869731891894</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.40294361547495</v>
+        <v>39.29604671716593</v>
       </c>
       <c r="H7">
-        <v>11.44896382939478</v>
+        <v>16.79695867062649</v>
       </c>
       <c r="I7">
-        <v>17.36662934535594</v>
+        <v>24.32717442999714</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.22693704205961</v>
+        <v>10.34290858797151</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.45674099293785</v>
+        <v>14.3302513208495</v>
       </c>
       <c r="N7">
-        <v>13.55857044080601</v>
+        <v>20.15264854600935</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.12982876295437</v>
+        <v>10.09247089537157</v>
       </c>
       <c r="C8">
-        <v>9.250289022065436</v>
+        <v>6.06547829434265</v>
       </c>
       <c r="D8">
-        <v>6.941582578279363</v>
+        <v>5.960850629123674</v>
       </c>
       <c r="E8">
-        <v>13.33343900774672</v>
+        <v>11.57743175664239</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.02978359187126</v>
+        <v>39.52787484879511</v>
       </c>
       <c r="H8">
-        <v>11.5898268298709</v>
+        <v>16.76803355105865</v>
       </c>
       <c r="I8">
-        <v>17.57924641293436</v>
+        <v>24.28741155098127</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.30960009009162</v>
+        <v>10.56727847806058</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.80010958642834</v>
+        <v>14.53282810507838</v>
       </c>
       <c r="N8">
-        <v>13.30910210221684</v>
+        <v>20.0779058901224</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.24650896805214</v>
+        <v>10.7332050695761</v>
       </c>
       <c r="C9">
-        <v>10.7888041031728</v>
+        <v>6.632710181803484</v>
       </c>
       <c r="D9">
-        <v>8.090969661860562</v>
+        <v>6.251337325987666</v>
       </c>
       <c r="E9">
-        <v>15.50068137085838</v>
+        <v>12.11603687502466</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.31495899553158</v>
+        <v>40.06948568851313</v>
       </c>
       <c r="H9">
-        <v>11.93213218662172</v>
+        <v>16.73556961239398</v>
       </c>
       <c r="I9">
-        <v>18.10713630912429</v>
+        <v>24.24792954154081</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.2203735124956</v>
+        <v>11.01507322106805</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.17930441835401</v>
+        <v>14.95280277825623</v>
       </c>
       <c r="N9">
-        <v>12.85094654267435</v>
+        <v>19.94612586143804</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.6567739034827</v>
+        <v>11.19214901733115</v>
       </c>
       <c r="C10">
-        <v>11.82055156154158</v>
+        <v>7.027404396632909</v>
       </c>
       <c r="D10">
-        <v>8.859400775707174</v>
+        <v>6.464369043896387</v>
       </c>
       <c r="E10">
-        <v>17.04807157855521</v>
+        <v>12.51442277073976</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>41.77284847489933</v>
+        <v>40.51806887013146</v>
       </c>
       <c r="H10">
-        <v>12.22716127668834</v>
+        <v>16.72655763392764</v>
       </c>
       <c r="I10">
-        <v>18.56859343280158</v>
+        <v>24.24250069004583</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.4984336211086</v>
+        <v>11.34528315896595</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.77793848661198</v>
+        <v>15.27242502838668</v>
       </c>
       <c r="N10">
-        <v>12.53398279994324</v>
+        <v>19.85827986515451</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.26799771633216</v>
+        <v>11.39729015621391</v>
       </c>
       <c r="C11">
-        <v>12.2695605557677</v>
+        <v>7.201346600598148</v>
       </c>
       <c r="D11">
-        <v>9.193140222428717</v>
+        <v>6.560703349032379</v>
       </c>
       <c r="E11">
-        <v>17.7250430645176</v>
+        <v>12.69533871321977</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>42.89873482648117</v>
+        <v>40.73255310803404</v>
       </c>
       <c r="H11">
-        <v>12.37152017401414</v>
+        <v>16.72568682732371</v>
       </c>
       <c r="I11">
-        <v>18.79575158709672</v>
+        <v>24.24516672506839</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.05348622097566</v>
+        <v>11.49504331437694</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.47429758250391</v>
+        <v>15.41962662231335</v>
       </c>
       <c r="N11">
-        <v>12.39429526156505</v>
+        <v>19.82025580968201</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.495191087983</v>
+        <v>11.47436800794165</v>
       </c>
       <c r="C12">
-        <v>12.43675734646059</v>
+        <v>7.266350447661917</v>
       </c>
       <c r="D12">
-        <v>9.317301717172867</v>
+        <v>6.597061129510092</v>
       </c>
       <c r="E12">
-        <v>17.97768268435663</v>
+        <v>12.76373044602018</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.32611410357082</v>
+        <v>40.8152163446408</v>
       </c>
       <c r="H12">
-        <v>12.42770159642177</v>
+        <v>16.72582149809927</v>
       </c>
       <c r="I12">
-        <v>18.88435097053312</v>
+        <v>24.24691527936119</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.25996884363831</v>
+        <v>11.55163049523608</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.73369122777447</v>
+        <v>15.47557652098896</v>
       </c>
       <c r="N12">
-        <v>12.34207484632712</v>
+        <v>19.80613511306948</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.44644897894802</v>
+        <v>11.45779603881412</v>
       </c>
       <c r="C13">
-        <v>12.40087300055948</v>
+        <v>7.25238998989603</v>
       </c>
       <c r="D13">
-        <v>9.290659032008119</v>
+        <v>6.589236857115551</v>
       </c>
       <c r="E13">
-        <v>17.92343472201311</v>
+        <v>12.74900739364532</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.23402522170278</v>
+        <v>40.79735009532344</v>
       </c>
       <c r="H13">
-        <v>12.41553357930933</v>
+        <v>16.72577183922381</v>
       </c>
       <c r="I13">
-        <v>18.86515315211871</v>
+        <v>24.24650582740032</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.21566240800974</v>
+        <v>11.53944984164452</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.67801521233595</v>
+        <v>15.46351828135497</v>
       </c>
       <c r="N13">
-        <v>12.35329083378235</v>
+        <v>19.809163891778</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.28677393658916</v>
+        <v>11.40364396103309</v>
       </c>
       <c r="C14">
-        <v>12.28337216856565</v>
+        <v>7.206712133559305</v>
       </c>
       <c r="D14">
-        <v>9.203399182887011</v>
+        <v>6.5636971867679</v>
       </c>
       <c r="E14">
-        <v>17.74590135574837</v>
+        <v>12.70096809439707</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>42.93387520249143</v>
+        <v>40.73932527932183</v>
       </c>
       <c r="H14">
-        <v>12.37611154181686</v>
+        <v>16.72568859905033</v>
       </c>
       <c r="I14">
-        <v>18.80298842863082</v>
+        <v>24.2452957681467</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.07054738603134</v>
+        <v>11.49970158195525</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.49572345570331</v>
+        <v>15.42422578233125</v>
       </c>
       <c r="N14">
-        <v>12.38998531264659</v>
+        <v>19.81908851853157</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.18841602293632</v>
+        <v>11.37039318934077</v>
       </c>
       <c r="C15">
-        <v>12.21103338649388</v>
+        <v>7.178618977802162</v>
       </c>
       <c r="D15">
-        <v>9.149662863215541</v>
+        <v>6.548036392015523</v>
       </c>
       <c r="E15">
-        <v>17.6366782813427</v>
+        <v>12.67152527914046</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>42.75015731941467</v>
+        <v>40.70396957576832</v>
       </c>
       <c r="H15">
-        <v>12.35216352845612</v>
+        <v>16.7256980939844</v>
       </c>
       <c r="I15">
-        <v>18.76524969940289</v>
+        <v>24.24465081627574</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.98118055460526</v>
+        <v>11.47533681685817</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.38350844501786</v>
+        <v>15.40018353722253</v>
       </c>
       <c r="N15">
-        <v>12.41255078603051</v>
+        <v>19.8252038550187</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.61622700232682</v>
+        <v>11.17866225967343</v>
       </c>
       <c r="C16">
-        <v>11.79080617176429</v>
+        <v>7.015918906949039</v>
       </c>
       <c r="D16">
-        <v>8.83727649557731</v>
+        <v>6.458058399829287</v>
       </c>
       <c r="E16">
-        <v>17.0033010108419</v>
+        <v>12.50258695592896</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.69941673962429</v>
+        <v>40.5042568227723</v>
       </c>
       <c r="H16">
-        <v>12.21793607967582</v>
+        <v>16.72667953107814</v>
       </c>
       <c r="I16">
-        <v>18.55410355118352</v>
+        <v>24.24242985238649</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.46163655770525</v>
+        <v>11.33548179392534</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.73182001773538</v>
+        <v>15.26283694237546</v>
       </c>
       <c r="N16">
-        <v>12.54320460095365</v>
+        <v>19.86080377765031</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.25750939789961</v>
+        <v>11.06005013080899</v>
       </c>
       <c r="C17">
-        <v>11.52786422414223</v>
+        <v>6.914627950052895</v>
       </c>
       <c r="D17">
-        <v>8.641624172100313</v>
+        <v>6.402684001391115</v>
       </c>
       <c r="E17">
-        <v>16.60795226622159</v>
+        <v>12.39881643093733</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.05673166742933</v>
+        <v>40.38436996784832</v>
       </c>
       <c r="H17">
-        <v>12.13823076607998</v>
+        <v>16.7281087470066</v>
       </c>
       <c r="I17">
-        <v>18.42905846575247</v>
+        <v>24.24238321209993</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.1362234213828</v>
+        <v>11.24952665371742</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.32421748321273</v>
+        <v>15.1790044954087</v>
       </c>
       <c r="N17">
-        <v>12.62452777544742</v>
+        <v>19.8831391139326</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.04832527423152</v>
+        <v>10.99148992272749</v>
       </c>
       <c r="C18">
-        <v>11.37470679284643</v>
+        <v>6.855843344808096</v>
       </c>
       <c r="D18">
-        <v>8.52759710317099</v>
+        <v>6.370782226272525</v>
       </c>
       <c r="E18">
-        <v>16.37801154148048</v>
+        <v>12.33910516512561</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.68781002765306</v>
+        <v>40.31639869866331</v>
       </c>
       <c r="H18">
-        <v>12.09333816235561</v>
+        <v>16.72923470955033</v>
       </c>
       <c r="I18">
-        <v>18.35875238408927</v>
+        <v>24.24283977618996</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.94656928390066</v>
+        <v>11.20004815398432</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.08686101443954</v>
+        <v>15.13095914858083</v>
       </c>
       <c r="N18">
-        <v>12.67172423967802</v>
+        <v>19.89616820187055</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.97700525293885</v>
+        <v>10.96822123096709</v>
       </c>
       <c r="C19">
-        <v>11.3225178512673</v>
+        <v>6.835851664871563</v>
       </c>
       <c r="D19">
-        <v>8.488731390094451</v>
+        <v>6.359973151221368</v>
       </c>
       <c r="E19">
-        <v>16.29971557344542</v>
+        <v>12.31888588387865</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.56302923991889</v>
+        <v>40.29355553076705</v>
       </c>
       <c r="H19">
-        <v>12.07830008041285</v>
+        <v>16.72966813116935</v>
       </c>
       <c r="I19">
-        <v>18.33522256598813</v>
+        <v>24.24307736168229</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.88192639525196</v>
+        <v>11.1832906408747</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.00599170999974</v>
+        <v>15.11472308397259</v>
       </c>
       <c r="N19">
-        <v>12.68777577561712</v>
+        <v>19.90061096681438</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.29599075189202</v>
+        <v>11.07271215495606</v>
       </c>
       <c r="C20">
-        <v>11.55605293403887</v>
+        <v>6.925465298191005</v>
       </c>
       <c r="D20">
-        <v>8.662605817211988</v>
+        <v>6.408584361481353</v>
       </c>
       <c r="E20">
-        <v>16.65030026980224</v>
+        <v>12.40986612334278</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.12507148203633</v>
+        <v>40.39703063308833</v>
       </c>
       <c r="H20">
-        <v>12.14661662453783</v>
+        <v>16.72792514871307</v>
       </c>
       <c r="I20">
-        <v>18.4422017013545</v>
+        <v>24.24233814296183</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.17112081950355</v>
+        <v>11.25868123143825</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.36790813670564</v>
+        <v>15.18791108664118</v>
       </c>
       <c r="N20">
-        <v>12.61582697023868</v>
+        <v>19.88074260536407</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.33378929490581</v>
+        <v>11.41956676871298</v>
       </c>
       <c r="C21">
-        <v>12.31796113899903</v>
+        <v>7.220152709012932</v>
       </c>
       <c r="D21">
-        <v>9.229089248738029</v>
+        <v>6.571202418913974</v>
       </c>
       <c r="E21">
-        <v>17.7981466742422</v>
+        <v>12.7150821429369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.02200895809488</v>
+        <v>40.75632988031936</v>
       </c>
       <c r="H21">
-        <v>12.38764914850598</v>
+        <v>16.72570044441314</v>
       </c>
       <c r="I21">
-        <v>18.82117689253202</v>
+        <v>24.24563113440351</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.11327099009893</v>
+        <v>11.51138042146017</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.54938258180747</v>
+        <v>15.4357617095497</v>
       </c>
       <c r="N21">
-        <v>12.37918863581855</v>
+        <v>19.81616586841373</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98724688776437</v>
+        <v>11.64269868618631</v>
       </c>
       <c r="C22">
-        <v>12.79944597921003</v>
+        <v>7.407688526709124</v>
       </c>
       <c r="D22">
-        <v>9.586417743080659</v>
+        <v>6.67675528188663</v>
       </c>
       <c r="E22">
-        <v>18.52676399419443</v>
+        <v>12.91384404036328</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>44.26777922545148</v>
+        <v>40.99953389981314</v>
       </c>
       <c r="H22">
-        <v>12.55404152377859</v>
+        <v>16.72695340028427</v>
       </c>
       <c r="I22">
-        <v>19.08394359613223</v>
+        <v>24.25209057034002</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.70747756477659</v>
+        <v>11.67578734466885</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.29653903951562</v>
+        <v>15.59893436797451</v>
       </c>
       <c r="N22">
-        <v>12.22849215463592</v>
+        <v>19.77558254924796</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.64072061844156</v>
+        <v>11.52395984935059</v>
       </c>
       <c r="C23">
-        <v>12.54394302821826</v>
+        <v>7.308077323026872</v>
       </c>
       <c r="D23">
-        <v>9.396865394972464</v>
+        <v>6.620498727584832</v>
       </c>
       <c r="E23">
-        <v>18.13980351778944</v>
+        <v>12.80784950906743</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>43.6023505529536</v>
+        <v>40.86898370402279</v>
       </c>
       <c r="H23">
-        <v>12.46440440808841</v>
+        <v>16.72603700683268</v>
       </c>
       <c r="I23">
-        <v>18.94228578549528</v>
+        <v>24.24824888775888</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.39227942602168</v>
+        <v>11.588127265151</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.90000721486972</v>
+        <v>15.51175426109336</v>
       </c>
       <c r="N23">
-        <v>12.30854783760961</v>
+        <v>19.79709441508837</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.27860253553646</v>
+        <v>11.0669887953612</v>
       </c>
       <c r="C24">
-        <v>11.54331501917405</v>
+        <v>6.9205674451273</v>
       </c>
       <c r="D24">
-        <v>8.653124828757626</v>
+        <v>6.405917012201827</v>
       </c>
       <c r="E24">
-        <v>16.63116300175244</v>
+        <v>12.40487071451932</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.09417327959592</v>
+        <v>40.39130377257924</v>
       </c>
       <c r="H24">
-        <v>12.14282248217443</v>
+        <v>16.72800720560765</v>
       </c>
       <c r="I24">
-        <v>18.43625471828573</v>
+        <v>24.24235701297541</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.1553517164174</v>
+        <v>11.2545426346701</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.34816501010214</v>
+        <v>15.18388394232086</v>
       </c>
       <c r="N24">
-        <v>12.6197592275001</v>
+        <v>19.88182548053821</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.69968833292911</v>
+        <v>10.56155349093587</v>
       </c>
       <c r="C25">
-        <v>10.39024724030318</v>
+        <v>6.482821293356277</v>
       </c>
       <c r="D25">
-        <v>7.793596554840936</v>
+        <v>6.172647774988279</v>
       </c>
       <c r="E25">
-        <v>14.90597103438957</v>
+        <v>11.96954713694004</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.41763684907055</v>
+        <v>39.91388082761499</v>
       </c>
       <c r="H25">
-        <v>11.8321152792417</v>
+        <v>16.7417488837174</v>
       </c>
       <c r="I25">
-        <v>17.95182223407816</v>
+        <v>24.25447633635424</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.72584080609161</v>
+        <v>10.89346754951428</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.56238101335303</v>
+        <v>14.8370402051784</v>
       </c>
       <c r="N25">
-        <v>12.97150598190836</v>
+        <v>19.98019706543792</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.18193212210974</v>
+        <v>13.43942109682464</v>
       </c>
       <c r="C2">
-        <v>6.146048241211081</v>
+        <v>9.47462407364033</v>
       </c>
       <c r="D2">
-        <v>6.000841204185</v>
+        <v>7.109413785669354</v>
       </c>
       <c r="E2">
-        <v>11.6511982098234</v>
+        <v>13.61876858006299</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.59665430468949</v>
+        <v>36.47759927712406</v>
       </c>
       <c r="H2">
-        <v>16.76183556689347</v>
+        <v>11.63234103212658</v>
       </c>
       <c r="I2">
-        <v>24.27923766111509</v>
+        <v>17.64413408519448</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.62873368677392</v>
+        <v>12.58846008110948</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.5893551430761</v>
+        <v>15.14661929688679</v>
       </c>
       <c r="N2">
-        <v>20.05865695884594</v>
+        <v>13.24359144375787</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.921873704013338</v>
+        <v>12.5227928494004</v>
       </c>
       <c r="C3">
-        <v>5.910367986378228</v>
+        <v>8.811062218192733</v>
       </c>
       <c r="D3">
-        <v>5.885185272856104</v>
+        <v>6.612771993572133</v>
       </c>
       <c r="E3">
-        <v>11.43826046631249</v>
+        <v>12.78163115633101</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>39.40383858322354</v>
+        <v>35.18644298958083</v>
       </c>
       <c r="H3">
-        <v>16.78164993780516</v>
+        <v>11.5139644166907</v>
       </c>
       <c r="I3">
-        <v>24.30586070439011</v>
+        <v>17.46419910924882</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.45118847703047</v>
+        <v>11.76350168383374</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.42721212908878</v>
+        <v>14.12214624016953</v>
       </c>
       <c r="N3">
-        <v>20.11560652831324</v>
+        <v>13.43592740843498</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.761508525285656</v>
+        <v>11.92864862158829</v>
       </c>
       <c r="C4">
-        <v>5.76261178955103</v>
+        <v>8.381949401972554</v>
       </c>
       <c r="D4">
-        <v>5.814838911208075</v>
+        <v>6.291857967854729</v>
       </c>
       <c r="E4">
-        <v>11.30940041897275</v>
+        <v>12.25202677730266</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.29660929103007</v>
+        <v>34.40719159152257</v>
       </c>
       <c r="H4">
-        <v>16.79686780302429</v>
+        <v>11.44930063460218</v>
       </c>
       <c r="I4">
-        <v>24.32704653258796</v>
+        <v>17.36713182849465</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.3434968062104</v>
+        <v>11.22993391799978</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.33077356911291</v>
+        <v>13.46045565883793</v>
       </c>
       <c r="N4">
-        <v>20.15244166950302</v>
+        <v>13.55789101821672</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.69609444889513</v>
+        <v>11.67858424732046</v>
       </c>
       <c r="C5">
-        <v>5.701739062774982</v>
+        <v>8.201566204035903</v>
       </c>
       <c r="D5">
-        <v>5.786383371747627</v>
+        <v>6.177303564987056</v>
       </c>
       <c r="E5">
-        <v>11.25743868586938</v>
+        <v>12.03244146128093</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.25574944131914</v>
+        <v>34.09335533243313</v>
       </c>
       <c r="H5">
-        <v>16.80383548319731</v>
+        <v>11.42490960386512</v>
       </c>
       <c r="I5">
-        <v>24.33689433767714</v>
+        <v>17.330843583057</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.30000511113286</v>
+        <v>11.00566174971208</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.29230220528945</v>
+        <v>13.18252024704977</v>
       </c>
       <c r="N5">
-        <v>20.16792264089737</v>
+        <v>13.60855957991492</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.685231899764633</v>
+        <v>11.63657943234716</v>
       </c>
       <c r="C6">
-        <v>5.691594561628987</v>
+        <v>8.171278723846918</v>
       </c>
       <c r="D6">
-        <v>5.781672380394311</v>
+        <v>6.158136498869291</v>
       </c>
       <c r="E6">
-        <v>11.24884589243061</v>
+        <v>11.99575747527942</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>39.2491368439165</v>
+        <v>34.0414769577925</v>
       </c>
       <c r="H6">
-        <v>16.80503870615923</v>
+        <v>11.42097616487754</v>
       </c>
       <c r="I6">
-        <v>24.33860282696687</v>
+        <v>17.32501212195176</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.29280889933127</v>
+        <v>10.96800748248376</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.28596533514219</v>
+        <v>13.13586639147055</v>
       </c>
       <c r="N6">
-        <v>20.17052167218656</v>
+        <v>13.61703136512094</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.760626439858083</v>
+        <v>11.92530842524534</v>
       </c>
       <c r="C7">
-        <v>5.761793367594276</v>
+        <v>8.379539108942712</v>
       </c>
       <c r="D7">
-        <v>5.814454237179064</v>
+        <v>6.29032285948065</v>
       </c>
       <c r="E7">
-        <v>11.30869731891894</v>
+        <v>12.24908038457473</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.29604671716593</v>
+        <v>34.40294361547483</v>
       </c>
       <c r="H7">
-        <v>16.79695867062649</v>
+        <v>11.44896382939478</v>
       </c>
       <c r="I7">
-        <v>24.32717442999714</v>
+        <v>17.36662934535587</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.34290858797151</v>
+        <v>11.22693704205963</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.3302513208495</v>
+        <v>13.45674099293782</v>
       </c>
       <c r="N7">
-        <v>20.15264854600935</v>
+        <v>13.55857044080598</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.09247089537157</v>
+        <v>13.12982876295433</v>
       </c>
       <c r="C8">
-        <v>6.06547829434265</v>
+        <v>9.250289022065422</v>
       </c>
       <c r="D8">
-        <v>5.960850629123674</v>
+        <v>6.941582578279328</v>
       </c>
       <c r="E8">
-        <v>11.57743175664239</v>
+        <v>13.3334390077467</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>39.52787484879511</v>
+        <v>36.02978359187122</v>
       </c>
       <c r="H8">
-        <v>16.76803355105865</v>
+        <v>11.58982682987081</v>
       </c>
       <c r="I8">
-        <v>24.28741155098127</v>
+        <v>17.57924641293437</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.56727847806058</v>
+        <v>12.30960009009162</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.53282810507838</v>
+        <v>14.80010958642836</v>
       </c>
       <c r="N8">
-        <v>20.0779058901224</v>
+        <v>13.30910210221681</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.7332050695761</v>
+        <v>15.24650896805218</v>
       </c>
       <c r="C9">
-        <v>6.632710181803484</v>
+        <v>10.78880410317258</v>
       </c>
       <c r="D9">
-        <v>6.251337325987666</v>
+        <v>8.090969661860655</v>
       </c>
       <c r="E9">
-        <v>12.11603687502466</v>
+        <v>15.50068137085846</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.06948568851313</v>
+        <v>39.31495899553155</v>
       </c>
       <c r="H9">
-        <v>16.73556961239398</v>
+        <v>11.93213218662164</v>
       </c>
       <c r="I9">
-        <v>24.24792954154081</v>
+        <v>18.10713630912418</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.01507322106805</v>
+        <v>14.22037351249556</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.95280277825623</v>
+        <v>17.17930441835404</v>
       </c>
       <c r="N9">
-        <v>19.94612586143804</v>
+        <v>12.85094654267423</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.19214901733115</v>
+        <v>16.65677390348271</v>
       </c>
       <c r="C10">
-        <v>7.027404396632909</v>
+        <v>11.82055156154156</v>
       </c>
       <c r="D10">
-        <v>6.464369043896387</v>
+        <v>8.859400775707117</v>
       </c>
       <c r="E10">
-        <v>12.51442277073976</v>
+        <v>17.0480715785552</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>40.51806887013146</v>
+        <v>41.77284847489934</v>
       </c>
       <c r="H10">
-        <v>16.72655763392764</v>
+        <v>12.22716127668827</v>
       </c>
       <c r="I10">
-        <v>24.24250069004583</v>
+        <v>18.56859343280159</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.34528315896595</v>
+        <v>15.4984336211086</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.27242502838668</v>
+        <v>18.77793848661196</v>
       </c>
       <c r="N10">
-        <v>19.85827986515451</v>
+        <v>12.53398279994324</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.39729015621391</v>
+        <v>17.26799771633205</v>
       </c>
       <c r="C11">
-        <v>7.201346600598148</v>
+        <v>12.26956055576769</v>
       </c>
       <c r="D11">
-        <v>6.560703349032379</v>
+        <v>9.193140222428662</v>
       </c>
       <c r="E11">
-        <v>12.69533871321977</v>
+        <v>17.72504306451761</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>40.73255310803404</v>
+        <v>42.8987348264813</v>
       </c>
       <c r="H11">
-        <v>16.72568682732371</v>
+        <v>12.37152017401426</v>
       </c>
       <c r="I11">
-        <v>24.24516672506839</v>
+        <v>18.79575158709691</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.49504331437694</v>
+        <v>16.05348622097559</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.41962662231335</v>
+        <v>19.47429758250388</v>
       </c>
       <c r="N11">
-        <v>19.82025580968201</v>
+        <v>12.39429526156517</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.47436800794165</v>
+        <v>17.49519108798305</v>
       </c>
       <c r="C12">
-        <v>7.266350447661917</v>
+        <v>12.43675734646056</v>
       </c>
       <c r="D12">
-        <v>6.597061129510092</v>
+        <v>9.31730171717294</v>
       </c>
       <c r="E12">
-        <v>12.76373044602018</v>
+        <v>17.97768268435664</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>40.8152163446408</v>
+        <v>43.32611410357088</v>
       </c>
       <c r="H12">
-        <v>16.72582149809927</v>
+        <v>12.42770159642183</v>
       </c>
       <c r="I12">
-        <v>24.24691527936119</v>
+        <v>18.88435097053316</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.55163049523608</v>
+        <v>16.25996884363834</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.47557652098896</v>
+        <v>19.73369122777448</v>
       </c>
       <c r="N12">
-        <v>19.80613511306948</v>
+        <v>12.34207484632719</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.45779603881412</v>
+        <v>17.44644897894795</v>
       </c>
       <c r="C13">
-        <v>7.25238998989603</v>
+        <v>12.40087300055928</v>
       </c>
       <c r="D13">
-        <v>6.589236857115551</v>
+        <v>9.29065903200811</v>
       </c>
       <c r="E13">
-        <v>12.74900739364532</v>
+        <v>17.92343472201317</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>40.79735009532344</v>
+        <v>43.2340252217028</v>
       </c>
       <c r="H13">
-        <v>16.72577183922381</v>
+        <v>12.41553357930943</v>
       </c>
       <c r="I13">
-        <v>24.24650582740032</v>
+        <v>18.86515315211879</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.53944984164452</v>
+        <v>16.21566240800963</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.46351828135497</v>
+        <v>19.6780152123359</v>
       </c>
       <c r="N13">
-        <v>19.809163891778</v>
+        <v>12.35329083378243</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.40364396103309</v>
+        <v>17.28677393658912</v>
       </c>
       <c r="C14">
-        <v>7.206712133559305</v>
+        <v>12.28337216856568</v>
       </c>
       <c r="D14">
-        <v>6.5636971867679</v>
+        <v>9.203399182887038</v>
       </c>
       <c r="E14">
-        <v>12.70096809439707</v>
+        <v>17.74590135574833</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>40.73932527932183</v>
+        <v>42.93387520249156</v>
       </c>
       <c r="H14">
-        <v>16.72568859905033</v>
+        <v>12.37611154181689</v>
       </c>
       <c r="I14">
-        <v>24.2452957681467</v>
+        <v>18.8029884286309</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.49970158195525</v>
+        <v>16.07054738603133</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.42422578233125</v>
+        <v>19.49572345570329</v>
       </c>
       <c r="N14">
-        <v>19.81908851853157</v>
+        <v>12.38998531264671</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.37039318934077</v>
+        <v>17.18841602293653</v>
       </c>
       <c r="C15">
-        <v>7.178618977802162</v>
+        <v>12.21103338649369</v>
       </c>
       <c r="D15">
-        <v>6.548036392015523</v>
+        <v>9.149662863215637</v>
       </c>
       <c r="E15">
-        <v>12.67152527914046</v>
+        <v>17.6366782813428</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>40.70396957576832</v>
+        <v>42.75015731941454</v>
       </c>
       <c r="H15">
-        <v>16.7256980939844</v>
+        <v>12.35216352845597</v>
       </c>
       <c r="I15">
-        <v>24.24465081627574</v>
+        <v>18.76524969940263</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.47533681685817</v>
+        <v>15.98118055460532</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.40018353722253</v>
+        <v>19.38350844501796</v>
       </c>
       <c r="N15">
-        <v>19.8252038550187</v>
+        <v>12.41255078603027</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.17866225967343</v>
+        <v>16.61622700232679</v>
       </c>
       <c r="C16">
-        <v>7.015918906949039</v>
+        <v>11.79080617176426</v>
       </c>
       <c r="D16">
-        <v>6.458058399829287</v>
+        <v>8.83727649557712</v>
       </c>
       <c r="E16">
-        <v>12.50258695592896</v>
+        <v>17.00330101084189</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40.5042568227723</v>
+        <v>41.69941673962428</v>
       </c>
       <c r="H16">
-        <v>16.72667953107814</v>
+        <v>12.21793607967584</v>
       </c>
       <c r="I16">
-        <v>24.24242985238649</v>
+        <v>18.55410355118358</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.33548179392534</v>
+        <v>15.46163655770525</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.26283694237546</v>
+        <v>18.73182001773536</v>
       </c>
       <c r="N16">
-        <v>19.86080377765031</v>
+        <v>12.5432046009537</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.06005013080899</v>
+        <v>16.25750939789968</v>
       </c>
       <c r="C17">
-        <v>6.914627950052895</v>
+        <v>11.52786422414209</v>
       </c>
       <c r="D17">
-        <v>6.402684001391115</v>
+        <v>8.641624172100386</v>
       </c>
       <c r="E17">
-        <v>12.39881643093733</v>
+        <v>16.60795226622161</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>40.38436996784832</v>
+        <v>41.05673166742929</v>
       </c>
       <c r="H17">
-        <v>16.7281087470066</v>
+        <v>12.13823076607989</v>
       </c>
       <c r="I17">
-        <v>24.24238321209993</v>
+        <v>18.42905846575238</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.24952665371742</v>
+        <v>15.13622342138281</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.1790044954087</v>
+        <v>18.32421748321273</v>
       </c>
       <c r="N17">
-        <v>19.8831391139326</v>
+        <v>12.62452777544734</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.99148992272749</v>
+        <v>16.04832527423151</v>
       </c>
       <c r="C18">
-        <v>6.855843344808096</v>
+        <v>11.37470679284645</v>
       </c>
       <c r="D18">
-        <v>6.370782226272525</v>
+        <v>8.527597103170981</v>
       </c>
       <c r="E18">
-        <v>12.33910516512561</v>
+        <v>16.37801154148045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.31639869866331</v>
+        <v>40.68781002765316</v>
       </c>
       <c r="H18">
-        <v>16.72923470955033</v>
+        <v>12.09333816235556</v>
       </c>
       <c r="I18">
-        <v>24.24283977618996</v>
+        <v>18.35875238408926</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.20004815398432</v>
+        <v>14.94656928390067</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.13095914858083</v>
+        <v>18.08686101443951</v>
       </c>
       <c r="N18">
-        <v>19.89616820187055</v>
+        <v>12.67172423967797</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.96822123096709</v>
+        <v>15.97700525293875</v>
       </c>
       <c r="C19">
-        <v>6.835851664871563</v>
+        <v>11.32251785126742</v>
       </c>
       <c r="D19">
-        <v>6.359973151221368</v>
+        <v>8.488731390094364</v>
       </c>
       <c r="E19">
-        <v>12.31888588387865</v>
+        <v>16.29971557344538</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.29355553076705</v>
+        <v>40.563029239919</v>
       </c>
       <c r="H19">
-        <v>16.72966813116935</v>
+        <v>12.07830008041292</v>
       </c>
       <c r="I19">
-        <v>24.24307736168229</v>
+        <v>18.33522256598832</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.1832906408747</v>
+        <v>14.88192639525192</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.11472308397259</v>
+        <v>18.00599170999969</v>
       </c>
       <c r="N19">
-        <v>19.90061096681438</v>
+        <v>12.68777577561721</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.07271215495606</v>
+        <v>16.29599075189205</v>
       </c>
       <c r="C20">
-        <v>6.925465298191005</v>
+        <v>11.55605293403884</v>
       </c>
       <c r="D20">
-        <v>6.408584361481353</v>
+        <v>8.662605817211995</v>
       </c>
       <c r="E20">
-        <v>12.40986612334278</v>
+        <v>16.65030026980229</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>40.39703063308833</v>
+        <v>41.12507148203634</v>
       </c>
       <c r="H20">
-        <v>16.72792514871307</v>
+        <v>12.14661662453785</v>
       </c>
       <c r="I20">
-        <v>24.24233814296183</v>
+        <v>18.44220170135452</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.25868123143825</v>
+        <v>15.17112081950358</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.18791108664118</v>
+        <v>18.36790813670568</v>
       </c>
       <c r="N20">
-        <v>19.88074260536407</v>
+        <v>12.61582697023872</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.41956676871298</v>
+        <v>17.33378929490586</v>
       </c>
       <c r="C21">
-        <v>7.220152709012932</v>
+        <v>12.31796113899883</v>
       </c>
       <c r="D21">
-        <v>6.571202418913974</v>
+        <v>9.229089248738013</v>
       </c>
       <c r="E21">
-        <v>12.7150821429369</v>
+        <v>17.79814667424219</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>40.75632988031936</v>
+        <v>43.02200895809504</v>
       </c>
       <c r="H21">
-        <v>16.72570044441314</v>
+        <v>12.38764914850601</v>
       </c>
       <c r="I21">
-        <v>24.24563113440351</v>
+        <v>18.82117689253207</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.51138042146017</v>
+        <v>16.11327099009891</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.4357617095497</v>
+        <v>19.54938258180744</v>
       </c>
       <c r="N21">
-        <v>19.81616586841373</v>
+        <v>12.37918863581858</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.64269868618631</v>
+        <v>17.98724688776444</v>
       </c>
       <c r="C22">
-        <v>7.407688526709124</v>
+        <v>12.79944597921006</v>
       </c>
       <c r="D22">
-        <v>6.67675528188663</v>
+        <v>9.586417743080698</v>
       </c>
       <c r="E22">
-        <v>12.91384404036328</v>
+        <v>18.52676399419445</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>40.99953389981314</v>
+        <v>44.26777922545148</v>
       </c>
       <c r="H22">
-        <v>16.72695340028427</v>
+        <v>12.55404152377854</v>
       </c>
       <c r="I22">
-        <v>24.25209057034002</v>
+        <v>19.08394359613219</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.67578734466885</v>
+        <v>16.70747756477668</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.59893436797451</v>
+        <v>20.29653903951565</v>
       </c>
       <c r="N22">
-        <v>19.77558254924796</v>
+        <v>12.22849215463585</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.52395984935059</v>
+        <v>17.64072061844164</v>
       </c>
       <c r="C23">
-        <v>7.308077323026872</v>
+        <v>12.5439430282184</v>
       </c>
       <c r="D23">
-        <v>6.620498727584832</v>
+        <v>9.396865394972478</v>
       </c>
       <c r="E23">
-        <v>12.80784950906743</v>
+        <v>18.13980351778942</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>40.86898370402279</v>
+        <v>43.60235055295359</v>
       </c>
       <c r="H23">
-        <v>16.72603700683268</v>
+        <v>12.46440440808833</v>
       </c>
       <c r="I23">
-        <v>24.24824888775888</v>
+        <v>18.94228578549523</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.588127265151</v>
+        <v>16.39227942602178</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.51175426109336</v>
+        <v>19.90000721486978</v>
       </c>
       <c r="N23">
-        <v>19.79709441508837</v>
+        <v>12.30854783760953</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.0669887953612</v>
+        <v>16.27860253553657</v>
       </c>
       <c r="C24">
-        <v>6.9205674451273</v>
+        <v>11.54331501917394</v>
       </c>
       <c r="D24">
-        <v>6.405917012201827</v>
+        <v>8.653124828757674</v>
       </c>
       <c r="E24">
-        <v>12.40487071451932</v>
+        <v>16.63116300175245</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>40.39130377257924</v>
+        <v>41.09417327959585</v>
       </c>
       <c r="H24">
-        <v>16.72800720560765</v>
+        <v>12.14282248217438</v>
       </c>
       <c r="I24">
-        <v>24.24235701297541</v>
+        <v>18.43625471828561</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.2545426346701</v>
+        <v>15.15535171641745</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.18388394232086</v>
+        <v>18.34816501010218</v>
       </c>
       <c r="N24">
-        <v>19.88182548053821</v>
+        <v>12.61975922749999</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.56155349093587</v>
+        <v>14.69968833292917</v>
       </c>
       <c r="C25">
-        <v>6.482821293356277</v>
+        <v>10.39024724030306</v>
       </c>
       <c r="D25">
-        <v>6.172647774988279</v>
+        <v>7.79359655484105</v>
       </c>
       <c r="E25">
-        <v>11.96954713694004</v>
+        <v>14.90597103438957</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.91388082761499</v>
+        <v>38.41763684907059</v>
       </c>
       <c r="H25">
-        <v>16.7417488837174</v>
+        <v>11.83211527924163</v>
       </c>
       <c r="I25">
-        <v>24.25447633635424</v>
+        <v>17.95182223407811</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.89346754951428</v>
+        <v>13.72584080609162</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.8370402051784</v>
+        <v>16.56238101335305</v>
       </c>
       <c r="N25">
-        <v>19.98019706543792</v>
+        <v>12.97150598190828</v>
       </c>
       <c r="O25">
         <v>0</v>
